--- a/data/raw_data/exampledata2.xlsx
+++ b/data/raw_data/exampledata2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1AB5D1-B938-C945-9B59-8308E6C6FB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B858D5C3-FFAB-D244-BCE9-20CACBD5B8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36760" yWindow="4880" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40340" yWindow="5460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,7 +361,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -391,7 +391,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -570,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
